--- a/docs/台語音標.xlsx
+++ b/docs/台語音標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\DoMiSo_Zu_Im\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD952FA-389B-4957-BDD2-2C7AC2E7B7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF59739-5488-4973-9151-68894815DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="816" firstSheet="3" activeTab="8" xr2:uid="{80926E08-D569-4773-AF7A-CA1F2601C33F}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="38640" windowHeight="15720" tabRatio="816" firstSheet="3" activeTab="14" xr2:uid="{80926E08-D569-4773-AF7A-CA1F2601C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="聲母列表" sheetId="28" r:id="rId1"/>
@@ -18265,12 +18265,6 @@
     <xf numFmtId="0" fontId="87" fillId="14" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="208" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="205" fillId="18" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18281,6 +18275,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="208" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18295,17 +18295,17 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="129" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="129" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="168" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="168" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="128" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18322,18 +18322,6 @@
     <xf numFmtId="0" fontId="127" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="168" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="126" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18346,16 +18334,28 @@
     <xf numFmtId="0" fontId="126" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="167" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="128" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="167" fillId="25" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="128" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="167" fillId="25" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="167" fillId="25" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="167" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="167" fillId="25" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="166" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -20676,6 +20676,7 @@
       <sheetName val="各種台灣語言拼音對照簡表"/>
       <sheetName val="參考鍵盤"/>
       <sheetName val="參考鍵盤（2）"/>
+      <sheetName val="鍵盤設計規格_方音符號"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -20693,6 +20694,7 @@
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -28796,7 +28798,7 @@
       <c r="L6" s="698" t="s">
         <v>3331</v>
       </c>
-      <c r="M6" s="692"/>
+      <c r="M6" s="690"/>
     </row>
     <row r="7" spans="2:13" ht="24">
       <c r="B7" s="311" t="s">
@@ -31609,7 +31611,7 @@
   <dimension ref="B1:AC69"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="45.75" outlineLevelCol="1"/>
@@ -34138,8 +34140,8 @@
   </sheetPr>
   <dimension ref="A1:CR72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BZ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CL5" sqref="CL5:CP25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36"/>
@@ -45401,13 +45403,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:40" s="227" customFormat="1" ht="30">
-      <c r="B2" s="664" t="s">
+      <c r="B2" s="662" t="s">
         <v>1935</v>
       </c>
-      <c r="C2" s="665"/>
-      <c r="D2" s="666"/>
-      <c r="E2" s="667"/>
-      <c r="F2" s="667"/>
+      <c r="C2" s="663"/>
+      <c r="D2" s="664"/>
+      <c r="E2" s="665"/>
+      <c r="F2" s="665"/>
       <c r="G2" s="392" t="s">
         <v>3258</v>
       </c>
@@ -45517,78 +45519,78 @@
       <c r="D3" s="390" t="s">
         <v>1936</v>
       </c>
-      <c r="E3" s="662" t="s">
+      <c r="E3" s="666" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="663"/>
+      <c r="F3" s="667"/>
       <c r="G3" s="668" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="669"/>
-      <c r="I3" s="662" t="s">
+      <c r="I3" s="666" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="663"/>
-      <c r="K3" s="662" t="s">
+      <c r="J3" s="667"/>
+      <c r="K3" s="666" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="663"/>
-      <c r="M3" s="662" t="s">
+      <c r="L3" s="667"/>
+      <c r="M3" s="666" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="663"/>
-      <c r="O3" s="662" t="s">
+      <c r="N3" s="667"/>
+      <c r="O3" s="666" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="663"/>
-      <c r="Q3" s="662" t="s">
+      <c r="P3" s="667"/>
+      <c r="Q3" s="666" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="663"/>
-      <c r="S3" s="662" t="s">
+      <c r="R3" s="667"/>
+      <c r="S3" s="666" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="663"/>
-      <c r="U3" s="662" t="s">
+      <c r="T3" s="667"/>
+      <c r="U3" s="666" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="663"/>
-      <c r="W3" s="662" t="s">
+      <c r="V3" s="667"/>
+      <c r="W3" s="666" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="663"/>
-      <c r="Y3" s="662" t="s">
+      <c r="X3" s="667"/>
+      <c r="Y3" s="666" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="663"/>
-      <c r="AA3" s="662" t="s">
+      <c r="Z3" s="667"/>
+      <c r="AA3" s="666" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="663"/>
-      <c r="AC3" s="662" t="s">
+      <c r="AB3" s="667"/>
+      <c r="AC3" s="666" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="663"/>
-      <c r="AE3" s="662" t="s">
+      <c r="AD3" s="667"/>
+      <c r="AE3" s="666" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="663"/>
-      <c r="AG3" s="662" t="s">
+      <c r="AF3" s="667"/>
+      <c r="AG3" s="666" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="663"/>
-      <c r="AI3" s="662" t="s">
+      <c r="AH3" s="667"/>
+      <c r="AI3" s="666" t="s">
         <v>15</v>
       </c>
-      <c r="AJ3" s="663"/>
-      <c r="AK3" s="662" t="s">
+      <c r="AJ3" s="667"/>
+      <c r="AK3" s="666" t="s">
         <v>16</v>
       </c>
-      <c r="AL3" s="663"/>
-      <c r="AM3" s="662" t="s">
+      <c r="AL3" s="667"/>
+      <c r="AM3" s="666" t="s">
         <v>17</v>
       </c>
-      <c r="AN3" s="663"/>
+      <c r="AN3" s="667"/>
     </row>
     <row r="4" spans="2:40">
       <c r="B4" s="396" t="s">
@@ -55626,16 +55628,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="AI3:AJ3"/>
     <mergeCell ref="AK3:AL3"/>
@@ -55646,6 +55638,16 @@
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
     <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62105,36 +62107,36 @@
   <sheetData>
     <row r="1" spans="2:19" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:19" ht="39">
-      <c r="B2" s="685" t="s">
+      <c r="B2" s="681" t="s">
         <v>1507</v>
       </c>
-      <c r="C2" s="686"/>
+      <c r="C2" s="682"/>
       <c r="D2" s="678" t="s">
         <v>1508</v>
       </c>
       <c r="E2" s="679"/>
       <c r="F2" s="679"/>
       <c r="G2" s="680"/>
-      <c r="H2" s="672" t="s">
+      <c r="H2" s="685" t="s">
         <v>1509</v>
       </c>
-      <c r="I2" s="673"/>
-      <c r="J2" s="672" t="s">
+      <c r="I2" s="686"/>
+      <c r="J2" s="685" t="s">
         <v>1951</v>
       </c>
-      <c r="K2" s="673"/>
-      <c r="L2" s="672" t="s">
+      <c r="K2" s="686"/>
+      <c r="L2" s="685" t="s">
         <v>1952</v>
       </c>
-      <c r="M2" s="673"/>
-      <c r="N2" s="672" t="s">
+      <c r="M2" s="686"/>
+      <c r="N2" s="685" t="s">
         <v>1953</v>
       </c>
-      <c r="O2" s="673"/>
+      <c r="O2" s="686"/>
     </row>
     <row r="3" spans="2:19" ht="32.25" customHeight="1">
-      <c r="B3" s="687"/>
-      <c r="C3" s="688"/>
+      <c r="B3" s="683"/>
+      <c r="C3" s="684"/>
       <c r="D3" s="676" t="s">
         <v>976</v>
       </c>
@@ -62143,20 +62145,20 @@
         <v>977</v>
       </c>
       <c r="G3" s="677"/>
-      <c r="H3" s="674"/>
-      <c r="I3" s="675"/>
-      <c r="J3" s="674"/>
-      <c r="K3" s="675"/>
-      <c r="L3" s="674"/>
-      <c r="M3" s="675"/>
-      <c r="N3" s="674"/>
-      <c r="O3" s="675"/>
+      <c r="H3" s="687"/>
+      <c r="I3" s="688"/>
+      <c r="J3" s="687"/>
+      <c r="K3" s="688"/>
+      <c r="L3" s="687"/>
+      <c r="M3" s="688"/>
+      <c r="N3" s="687"/>
+      <c r="O3" s="688"/>
     </row>
     <row r="4" spans="2:19" ht="45.75">
-      <c r="B4" s="681" t="s">
+      <c r="B4" s="672" t="s">
         <v>978</v>
       </c>
-      <c r="C4" s="683" t="s">
+      <c r="C4" s="674" t="s">
         <v>978</v>
       </c>
       <c r="D4" s="315" t="s">
@@ -62194,8 +62196,8 @@
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="2:19" ht="44.25">
-      <c r="B5" s="682"/>
-      <c r="C5" s="684"/>
+      <c r="B5" s="673"/>
+      <c r="C5" s="675"/>
       <c r="D5" s="229" t="s">
         <v>1018</v>
       </c>
@@ -62227,10 +62229,10 @@
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="2:19" ht="45.75">
-      <c r="B6" s="681" t="s">
+      <c r="B6" s="672" t="s">
         <v>1514</v>
       </c>
-      <c r="C6" s="683" t="s">
+      <c r="C6" s="674" t="s">
         <v>979</v>
       </c>
       <c r="D6" s="315" t="s">
@@ -62265,8 +62267,8 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="44.25">
-      <c r="B7" s="682"/>
-      <c r="C7" s="684"/>
+      <c r="B7" s="673"/>
+      <c r="C7" s="675"/>
       <c r="D7" s="229" t="s">
         <v>1023</v>
       </c>
@@ -62297,10 +62299,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="45.75">
-      <c r="B8" s="681" t="s">
+      <c r="B8" s="672" t="s">
         <v>1519</v>
       </c>
-      <c r="C8" s="683" t="s">
+      <c r="C8" s="674" t="s">
         <v>980</v>
       </c>
       <c r="D8" s="315" t="s">
@@ -62335,8 +62337,8 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="44.25">
-      <c r="B9" s="682"/>
-      <c r="C9" s="684"/>
+      <c r="B9" s="673"/>
+      <c r="C9" s="675"/>
       <c r="D9" s="229" t="s">
         <v>1027</v>
       </c>
@@ -62367,10 +62369,10 @@
       <c r="O9" s="230"/>
     </row>
     <row r="10" spans="2:19" ht="45.75">
-      <c r="B10" s="681" t="s">
+      <c r="B10" s="672" t="s">
         <v>981</v>
       </c>
-      <c r="C10" s="683" t="s">
+      <c r="C10" s="674" t="s">
         <v>981</v>
       </c>
       <c r="D10" s="315" t="s">
@@ -62405,8 +62407,8 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="44.25">
-      <c r="B11" s="682"/>
-      <c r="C11" s="684"/>
+      <c r="B11" s="673"/>
+      <c r="C11" s="675"/>
       <c r="D11" s="229" t="s">
         <v>1030</v>
       </c>
@@ -62437,10 +62439,10 @@
       <c r="O11" s="230"/>
     </row>
     <row r="12" spans="2:19" ht="45.75">
-      <c r="B12" s="681" t="s">
+      <c r="B12" s="672" t="s">
         <v>982</v>
       </c>
-      <c r="C12" s="683" t="s">
+      <c r="C12" s="674" t="s">
         <v>982</v>
       </c>
       <c r="D12" s="315" t="s">
@@ -62477,8 +62479,8 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="44.25">
-      <c r="B13" s="682"/>
-      <c r="C13" s="684"/>
+      <c r="B13" s="673"/>
+      <c r="C13" s="675"/>
       <c r="D13" s="229" t="s">
         <v>1034</v>
       </c>
@@ -62509,10 +62511,10 @@
       <c r="O13" s="230"/>
     </row>
     <row r="14" spans="2:19" ht="45.75">
-      <c r="B14" s="681" t="s">
+      <c r="B14" s="672" t="s">
         <v>983</v>
       </c>
-      <c r="C14" s="683" t="s">
+      <c r="C14" s="674" t="s">
         <v>983</v>
       </c>
       <c r="D14" s="315"/>
@@ -62535,8 +62537,8 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="44.25">
-      <c r="B15" s="682"/>
-      <c r="C15" s="684"/>
+      <c r="B15" s="673"/>
+      <c r="C15" s="675"/>
       <c r="D15" s="229"/>
       <c r="E15" s="230"/>
       <c r="F15" s="229"/>
@@ -62555,10 +62557,10 @@
       <c r="O15" s="230"/>
     </row>
     <row r="16" spans="2:19" ht="45.75">
-      <c r="B16" s="681" t="s">
+      <c r="B16" s="672" t="s">
         <v>1532</v>
       </c>
-      <c r="C16" s="683" t="s">
+      <c r="C16" s="674" t="s">
         <v>1533</v>
       </c>
       <c r="D16" s="315" t="s">
@@ -62581,8 +62583,8 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="44.25">
-      <c r="B17" s="682"/>
-      <c r="C17" s="684"/>
+      <c r="B17" s="673"/>
+      <c r="C17" s="675"/>
       <c r="D17" s="232"/>
       <c r="E17" s="230" t="s">
         <v>1961</v>
@@ -62602,14 +62604,11 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B12:B13"/>
@@ -62619,11 +62618,14 @@
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62771,30 +62773,30 @@
       <c r="D3" s="693"/>
       <c r="E3" s="693"/>
       <c r="F3" s="693"/>
-      <c r="G3" s="691" t="s">
+      <c r="G3" s="689" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="692"/>
-      <c r="I3" s="691" t="s">
+      <c r="H3" s="690"/>
+      <c r="I3" s="689" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="692"/>
-      <c r="K3" s="691" t="s">
+      <c r="J3" s="690"/>
+      <c r="K3" s="689" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="692"/>
-      <c r="M3" s="691" t="s">
+      <c r="L3" s="690"/>
+      <c r="M3" s="689" t="s">
         <v>2017</v>
       </c>
-      <c r="N3" s="692"/>
-      <c r="O3" s="691" t="s">
+      <c r="N3" s="690"/>
+      <c r="O3" s="689" t="s">
         <v>2020</v>
       </c>
-      <c r="P3" s="692"/>
-      <c r="Q3" s="691" t="s">
+      <c r="P3" s="690"/>
+      <c r="Q3" s="689" t="s">
         <v>2024</v>
       </c>
-      <c r="R3" s="692"/>
+      <c r="R3" s="690"/>
       <c r="S3" s="309" t="s">
         <v>1843</v>
       </c>
@@ -62807,7 +62809,7 @@
         <f t="array" ref="A4">ROW() - ROW($3:$3)</f>
         <v>1</v>
       </c>
-      <c r="B4" s="689" t="s">
+      <c r="B4" s="691" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="275" t="s">
@@ -62876,7 +62878,7 @@
         <f t="array" ref="A5">ROW() - ROW($3:$3)</f>
         <v>2</v>
       </c>
-      <c r="B5" s="690"/>
+      <c r="B5" s="692"/>
       <c r="C5" s="229" t="s">
         <v>1540</v>
       </c>
@@ -62943,7 +62945,7 @@
         <f t="array" ref="A6">ROW() - ROW($3:$3)</f>
         <v>3</v>
       </c>
-      <c r="B6" s="689" t="s">
+      <c r="B6" s="691" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="275" t="s">
@@ -62988,7 +62990,7 @@
         <f t="array" ref="A7">ROW() - ROW($3:$3)</f>
         <v>4</v>
       </c>
-      <c r="B7" s="690"/>
+      <c r="B7" s="692"/>
       <c r="C7" s="229" t="s">
         <v>2184</v>
       </c>
@@ -63031,7 +63033,7 @@
         <f t="array" ref="A8">ROW() - ROW($3:$3)</f>
         <v>5</v>
       </c>
-      <c r="B8" s="689" t="s">
+      <c r="B8" s="691" t="s">
         <v>985</v>
       </c>
       <c r="C8" s="275" t="s">
@@ -63076,7 +63078,7 @@
         <f t="array" ref="A9">ROW() - ROW($3:$3)</f>
         <v>6</v>
       </c>
-      <c r="B9" s="690"/>
+      <c r="B9" s="692"/>
       <c r="C9" s="229" t="s">
         <v>2185</v>
       </c>
@@ -63119,7 +63121,7 @@
         <f t="array" ref="A10">ROW() - ROW($3:$3)</f>
         <v>7</v>
       </c>
-      <c r="B10" s="689" t="s">
+      <c r="B10" s="691" t="s">
         <v>2141</v>
       </c>
       <c r="C10" s="277" t="s">
@@ -63164,7 +63166,7 @@
         <f t="array" ref="A11">ROW() - ROW($3:$3)</f>
         <v>8</v>
       </c>
-      <c r="B11" s="690"/>
+      <c r="B11" s="692"/>
       <c r="C11" s="279" t="s">
         <v>2181</v>
       </c>
@@ -63207,7 +63209,7 @@
         <f t="array" ref="A12">ROW() - ROW($3:$3)</f>
         <v>9</v>
       </c>
-      <c r="B12" s="689" t="s">
+      <c r="B12" s="691" t="s">
         <v>208</v>
       </c>
       <c r="C12" s="275" t="s">
@@ -63252,7 +63254,7 @@
         <f t="array" ref="A13">ROW() - ROW($3:$3)</f>
         <v>10</v>
       </c>
-      <c r="B13" s="690"/>
+      <c r="B13" s="692"/>
       <c r="C13" s="229" t="s">
         <v>2176</v>
       </c>
@@ -63295,7 +63297,7 @@
         <f t="array" ref="A14">ROW() - ROW($3:$3)</f>
         <v>11</v>
       </c>
-      <c r="B14" s="689" t="s">
+      <c r="B14" s="691" t="s">
         <v>260</v>
       </c>
       <c r="C14" s="275" t="s">
@@ -63364,7 +63366,7 @@
         <f t="array" ref="A15">ROW() - ROW($3:$3)</f>
         <v>12</v>
       </c>
-      <c r="B15" s="690"/>
+      <c r="B15" s="692"/>
       <c r="C15" s="229" t="s">
         <v>2177</v>
       </c>
@@ -63431,7 +63433,7 @@
         <f t="array" ref="A16">ROW() - ROW($3:$3)</f>
         <v>13</v>
       </c>
-      <c r="B16" s="689" t="s">
+      <c r="B16" s="691" t="s">
         <v>3216</v>
       </c>
       <c r="C16" s="275" t="s">
@@ -63500,7 +63502,7 @@
         <f t="array" ref="A17">ROW() - ROW($3:$3)</f>
         <v>14</v>
       </c>
-      <c r="B17" s="690"/>
+      <c r="B17" s="692"/>
       <c r="C17" s="229" t="s">
         <v>2187</v>
       </c>
@@ -63567,7 +63569,7 @@
         <f t="array" ref="A18">ROW() - ROW($3:$3)</f>
         <v>15</v>
       </c>
-      <c r="B18" s="689" t="s">
+      <c r="B18" s="691" t="s">
         <v>986</v>
       </c>
       <c r="C18" s="275" t="s">
@@ -63612,7 +63614,7 @@
         <f t="array" ref="A19">ROW() - ROW($3:$3)</f>
         <v>16</v>
       </c>
-      <c r="B19" s="690"/>
+      <c r="B19" s="692"/>
       <c r="C19" s="229" t="s">
         <v>2190</v>
       </c>
@@ -63655,7 +63657,7 @@
         <f t="array" ref="A20">ROW() - ROW($3:$3)</f>
         <v>17</v>
       </c>
-      <c r="B20" s="689" t="s">
+      <c r="B20" s="691" t="s">
         <v>1171</v>
       </c>
       <c r="C20" s="275" t="s">
@@ -63692,7 +63694,7 @@
         <f t="array" ref="A21">ROW() - ROW($3:$3)</f>
         <v>18</v>
       </c>
-      <c r="B21" s="690"/>
+      <c r="B21" s="692"/>
       <c r="C21" s="229" t="s">
         <v>2188</v>
       </c>
@@ -63727,7 +63729,7 @@
         <f t="array" ref="A22">ROW() - ROW($3:$3)</f>
         <v>19</v>
       </c>
-      <c r="B22" s="689" t="s">
+      <c r="B22" s="691" t="s">
         <v>2007</v>
       </c>
       <c r="C22" s="275" t="s">
@@ -63774,7 +63776,7 @@
         <f t="array" ref="A23">ROW() - ROW($3:$3)</f>
         <v>20</v>
       </c>
-      <c r="B23" s="690"/>
+      <c r="B23" s="692"/>
       <c r="C23" s="229" t="s">
         <v>2008</v>
       </c>
@@ -63817,7 +63819,7 @@
         <f t="array" ref="A24">ROW() - ROW($3:$3)</f>
         <v>21</v>
       </c>
-      <c r="B24" s="689" t="s">
+      <c r="B24" s="691" t="s">
         <v>604</v>
       </c>
       <c r="C24" s="275" t="s">
@@ -63862,7 +63864,7 @@
         <f t="array" ref="A25">ROW() - ROW($3:$3)</f>
         <v>22</v>
       </c>
-      <c r="B25" s="690"/>
+      <c r="B25" s="692"/>
       <c r="C25" s="229" t="s">
         <v>2189</v>
       </c>
@@ -63905,7 +63907,7 @@
         <f t="array" ref="A26">ROW() - ROW($3:$3)</f>
         <v>23</v>
       </c>
-      <c r="B26" s="689" t="s">
+      <c r="B26" s="691" t="s">
         <v>988</v>
       </c>
       <c r="C26" s="281" t="s">
@@ -63942,7 +63944,7 @@
         <f t="array" ref="A27">ROW() - ROW($3:$3)</f>
         <v>24</v>
       </c>
-      <c r="B27" s="690"/>
+      <c r="B27" s="692"/>
       <c r="C27" s="283" t="s">
         <v>2179</v>
       </c>
@@ -63977,7 +63979,7 @@
         <f t="array" ref="A28">ROW() - ROW($3:$3)</f>
         <v>25</v>
       </c>
-      <c r="B28" s="689" t="s">
+      <c r="B28" s="691" t="s">
         <v>1361</v>
       </c>
       <c r="C28" s="275" t="s">
@@ -64014,7 +64016,7 @@
         <f t="array" ref="A29">ROW() - ROW($3:$3)</f>
         <v>26</v>
       </c>
-      <c r="B29" s="690"/>
+      <c r="B29" s="692"/>
       <c r="C29" s="229" t="s">
         <v>2179</v>
       </c>
@@ -64049,7 +64051,7 @@
         <f t="array" ref="A30">ROW() - ROW($3:$3)</f>
         <v>27</v>
       </c>
-      <c r="B30" s="689" t="s">
+      <c r="B30" s="691" t="s">
         <v>648</v>
       </c>
       <c r="C30" s="275" t="s">
@@ -64110,7 +64112,7 @@
         <f t="array" ref="A31">ROW() - ROW($3:$3)</f>
         <v>28</v>
       </c>
-      <c r="B31" s="690"/>
+      <c r="B31" s="692"/>
       <c r="C31" s="229" t="s">
         <v>2180</v>
       </c>
@@ -64169,7 +64171,7 @@
         <f t="array" ref="A32">ROW() - ROW($3:$3)</f>
         <v>29</v>
       </c>
-      <c r="B32" s="689" t="s">
+      <c r="B32" s="691" t="s">
         <v>2182</v>
       </c>
       <c r="C32" s="281" t="s">
@@ -64228,7 +64230,7 @@
         <f t="array" ref="A33">ROW() - ROW($3:$3)</f>
         <v>30</v>
       </c>
-      <c r="B33" s="690"/>
+      <c r="B33" s="692"/>
       <c r="C33" s="283" t="s">
         <v>2183</v>
       </c>
@@ -64283,7 +64285,7 @@
         <f t="array" ref="A34">ROW() - ROW($3:$3)</f>
         <v>31</v>
       </c>
-      <c r="B34" s="689" t="s">
+      <c r="B34" s="691" t="s">
         <v>732</v>
       </c>
       <c r="C34" s="275" t="s">
@@ -64328,7 +64330,7 @@
         <f t="array" ref="A35">ROW() - ROW($3:$3)</f>
         <v>32</v>
       </c>
-      <c r="B35" s="690"/>
+      <c r="B35" s="692"/>
       <c r="C35" s="229" t="s">
         <v>2178</v>
       </c>
@@ -64371,7 +64373,7 @@
         <f t="array" ref="A36">ROW() - ROW($3:$3)</f>
         <v>33</v>
       </c>
-      <c r="B36" s="689" t="s">
+      <c r="B36" s="691" t="s">
         <v>790</v>
       </c>
       <c r="C36" s="275" t="s">
@@ -64428,7 +64430,7 @@
         <f t="array" ref="A37">ROW() - ROW($3:$3)</f>
         <v>34</v>
       </c>
-      <c r="B37" s="690"/>
+      <c r="B37" s="692"/>
       <c r="C37" s="229" t="s">
         <v>2194</v>
       </c>
@@ -64483,7 +64485,7 @@
         <f t="array" ref="A38">ROW() - ROW($3:$3)</f>
         <v>35</v>
       </c>
-      <c r="B38" s="689" t="s">
+      <c r="B38" s="691" t="s">
         <v>868</v>
       </c>
       <c r="C38" s="275" t="s">
@@ -64524,7 +64526,7 @@
         <f t="array" ref="A39">ROW() - ROW($3:$3)</f>
         <v>36</v>
       </c>
-      <c r="B39" s="690"/>
+      <c r="B39" s="692"/>
       <c r="C39" s="229" t="s">
         <v>2191</v>
       </c>
@@ -64563,7 +64565,7 @@
         <f t="array" ref="A40">ROW() - ROW($3:$3)</f>
         <v>37</v>
       </c>
-      <c r="B40" s="689" t="s">
+      <c r="B40" s="691" t="s">
         <v>2154</v>
       </c>
       <c r="C40" s="277" t="s">
@@ -64598,7 +64600,7 @@
         <f t="array" ref="A41">ROW() - ROW($3:$3)</f>
         <v>38</v>
       </c>
-      <c r="B41" s="690"/>
+      <c r="B41" s="692"/>
       <c r="C41" s="279" t="s">
         <v>2280</v>
       </c>
@@ -64629,7 +64631,7 @@
         <f t="array" ref="A42">ROW() - ROW($3:$3)</f>
         <v>39</v>
       </c>
-      <c r="B42" s="689" t="s">
+      <c r="B42" s="691" t="s">
         <v>889</v>
       </c>
       <c r="C42" s="275" t="s">
@@ -64674,7 +64676,7 @@
         <f t="array" ref="A43">ROW() - ROW($3:$3)</f>
         <v>40</v>
       </c>
-      <c r="B43" s="690"/>
+      <c r="B43" s="692"/>
       <c r="C43" s="229" t="s">
         <v>2192</v>
       </c>
@@ -64717,7 +64719,7 @@
         <f t="array" ref="A44">ROW() - ROW($3:$3)</f>
         <v>41</v>
       </c>
-      <c r="B44" s="689" t="s">
+      <c r="B44" s="691" t="s">
         <v>921</v>
       </c>
       <c r="C44" s="275" t="s">
@@ -64754,7 +64756,7 @@
         <f t="array" ref="A45">ROW() - ROW($3:$3)</f>
         <v>42</v>
       </c>
-      <c r="B45" s="690"/>
+      <c r="B45" s="692"/>
       <c r="C45" s="229" t="s">
         <v>2193</v>
       </c>
@@ -64795,7 +64797,7 @@
         <f t="array" ref="A46">ROW() - ROW($3:$3)</f>
         <v>43</v>
       </c>
-      <c r="B46" s="689" t="s">
+      <c r="B46" s="691" t="s">
         <v>2302</v>
       </c>
       <c r="C46" s="275"/>
@@ -64828,7 +64830,7 @@
         <f t="array" ref="A47">ROW() - ROW($3:$3)</f>
         <v>44</v>
       </c>
-      <c r="B47" s="690"/>
+      <c r="B47" s="692"/>
       <c r="C47" s="229"/>
       <c r="D47" s="230"/>
       <c r="E47" s="301" t="s">
@@ -64859,7 +64861,7 @@
         <f t="array" ref="A48">ROW() - ROW($3:$3)</f>
         <v>45</v>
       </c>
-      <c r="B48" s="689" t="s">
+      <c r="B48" s="691" t="s">
         <v>2291</v>
       </c>
       <c r="C48" s="281" t="s">
@@ -64896,7 +64898,7 @@
         <f t="array" ref="A49">ROW() - ROW($3:$3)</f>
         <v>46</v>
       </c>
-      <c r="B49" s="690"/>
+      <c r="B49" s="692"/>
       <c r="C49" s="283" t="s">
         <v>2288</v>
       </c>
@@ -64931,7 +64933,7 @@
         <f t="array" ref="A50">ROW() - ROW($3:$3)</f>
         <v>47</v>
       </c>
-      <c r="B50" s="689" t="s">
+      <c r="B50" s="691" t="s">
         <v>949</v>
       </c>
       <c r="C50" s="275" t="s">
@@ -64968,7 +64970,7 @@
         <f t="array" ref="A51">ROW() - ROW($3:$3)</f>
         <v>48</v>
       </c>
-      <c r="B51" s="690"/>
+      <c r="B51" s="692"/>
       <c r="C51" s="229" t="s">
         <v>2199</v>
       </c>
@@ -65003,7 +65005,7 @@
         <f t="array" ref="A52">ROW() - ROW($3:$3)</f>
         <v>49</v>
       </c>
-      <c r="B52" s="689" t="s">
+      <c r="B52" s="691" t="s">
         <v>955</v>
       </c>
       <c r="C52" s="275" t="s">
@@ -65040,7 +65042,7 @@
         <f t="array" ref="A53">ROW() - ROW($3:$3)</f>
         <v>50</v>
       </c>
-      <c r="B53" s="690"/>
+      <c r="B53" s="692"/>
       <c r="C53" s="229" t="s">
         <v>2198</v>
       </c>
@@ -65072,6 +65074,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
@@ -65085,26 +65105,8 @@
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F3"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66927,7 +66929,7 @@
   </sheetPr>
   <dimension ref="B1:AH103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H12" sqref="H12"/>
       <selection pane="bottomLeft" activeCell="T99" sqref="T99"/>
